--- a/output/Tables/surv1.xlsx
+++ b/output/Tables/surv1.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="25500" windowWidth="17070" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,21 +12,39 @@
     <sheet name="S. Table 6 | LOFO" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="S. Table 7 | LOCO" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="S. Table 8 | AUROC" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="S. Table 4 | CNV Pred" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="S. Table 5 | SURV Pred" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <b val="1"/>
@@ -55,19 +74,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -82,44 +117,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,15 +181,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -193,160 +226,189 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.609999999999999"/>
+  </cols>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -356,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -365,108 +427,194 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Average Hold-Out Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>10-fold CV Accuracy (%)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Average Hold-Out Accuracy (%)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Average Precision</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>UPREG/GAIN Precision</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>DOWNREG/LOSS Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Average Recall</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DOWNREG/LOSS Precision</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>UPREG/GAIN Recall</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>DOWNREG/LOSS Recall</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>P-value</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Z-score</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>F1-Score</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>MCC</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P-value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UPREG/GAIN Precision</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UPREG/GAIN Recall</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Z-score</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Breast Cancer Cancer</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>97.47</v>
-      </c>
-      <c r="C2" t="n">
-        <v>88.75</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>90.14</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>97.75</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1e-50</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>116.42</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9595642630789357</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" s="1" t="n">
+        <v>0.9527117176679044</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Lung Cancer Cancer</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>91.31</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>98.36</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>1e-50</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" s="1" t="n">
+        <v>142.07</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0.966617076767168</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Melanoma Cancer</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>92.81999999999999</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>98.38</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>124.28</v>
+      <c r="I4" s="1" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1e-50</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>151.74</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.9636808092821921</v>
       </c>
     </row>
   </sheetData>
@@ -480,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,105 +637,665 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Cancer</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Target</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Held-out feature set</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mean class accuracy</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Toplogical Features</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.8690292758089369</v>
+      <c r="D2" s="1" t="n">
+        <v>0.8744221879815101</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Dynamic Features</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.9160246533127889</v>
+      <c r="D3" s="1" t="n">
+        <v>0.9345146379044684</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Gene expression and kcat</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.8690292758089369</v>
+      <c r="D4" s="1" t="n">
+        <v>0.8821263482280431</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Gene expression only</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.8690292758089369</v>
+      <c r="D5" s="1" t="n">
+        <v>0.8767334360554699</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Toplogical Features</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.9018912529550828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Features</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.9503546099290781</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression and kcat</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.8953900709219859</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression only</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.9089834515366431</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Toplogical Features</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.9231927710843374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Features</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.9513052208835341</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression and kcat</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.9091365461847389</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression only</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.9267068273092369</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Toplogical Features</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.5331278890600925</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Features</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.7773497688751926</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression and kcat</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.5331278890600925</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression only</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Toplogical Features</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.6660756501182034</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Features</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.8587470449172577</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression and kcat</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.6134751773049646</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression only</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.6908983451536643</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Toplogical Features</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.6360441767068273</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Features</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.8428714859437751</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression and kcat</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.5446787148594378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression only</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.6355421686746988</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Toplogical Features</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.7395993836671803</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Dynamic Features</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.8574730354391371</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression and kcat</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.7172573189522342</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Gene expression only</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.7380585516178737</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Toplogical Features</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Dynamic Features</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9048463356973995</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Gene expression and kcat</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7310874704491725</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Gene expression only</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.7854609929078015</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +1309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,125 +1318,1125 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Cancer</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Target</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Held-out cell line</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mean class accuracy</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>BT-549</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.8728323699421965</v>
+      <c r="D2" s="1" t="n">
+        <v>0.8766859344894027</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>HS-578-T</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.8834296724470135</v>
+      <c r="D3" s="1" t="n">
+        <v>0.8709055876685935</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>MCF7</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.8795761078998073</v>
+      <c r="D4" s="1" t="n">
+        <v>0.882466281310212</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>MDA-MB-231</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.8901734104046243</v>
+      <c r="D5" s="1" t="n">
+        <v>0.8815028901734104</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>T47D</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0.884393063583815</v>
+      <c r="D6" s="1" t="n">
+        <v>0.882466281310212</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.9270762997974341</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>EKVX</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.9128966914247131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>HOP-62</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.9189736664415935</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>HOP-92</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.9237002025658338</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H226</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.9149223497636731</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H322M</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.912221471978393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H460</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.9264010803511141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H522</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.9182984469952734</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>LOXIMVI</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.9236947791164659</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>MALME-3M</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.9432013769363167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>MDA-MB-435</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.9265633964429145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>SK-MEL-2</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.9350736278447122</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>SK-MEL-28</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.9271371199082042</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>SK-MEL-5</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.9351692484222605</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>UACC-257</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.9380378657487092</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>UACC-62</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.9208261617900172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>BT-549</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.6445086705202312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>HS-578-T</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.6223506743737958</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>MCF7</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.6011560693641619</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>MDA-MB-231</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.6088631984585742</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>T47D</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.6146435452793835</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.7332883187035787</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>EKVX</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.8055367994598245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>HOP-62</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.8082376772451046</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>HOP-92</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.8116137744767049</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H226</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.8082376772451046</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H322M</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.7846049966239028</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H460</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.7792032410533424</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>NCI-H522</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.787305874409183</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>LOXIMVI</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.7355134825014343</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>MALME-3M</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.7521514629948365</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>MDA-MB-435</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0.7337923121055652</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>SK-MEL-2</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>SK-MEL-28</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.7464142283419392</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>SK-MEL-5</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.7504302925989673</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>UACC-257</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0.7607573149741824</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>UACC-62</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.7280550774526678</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>BT-549</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.7427745664739884</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>HS-578-T</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0.7427745664739884</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>MCF7</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0.7649325626204239</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>MDA-MB-231</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0.7504816955684007</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>T47D</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.7861271676300579</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A549</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8386225523295071</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EKVX</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8426738690074275</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HOP-62</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8264686022957461</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>HOP-92</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8251181634031061</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCI-H226</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8143146522619852</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCI-H322M</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.8237677245104659</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCI-H460</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.8143146522619852</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCI-H522</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8406482106684673</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +2450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,35 +2459,517 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>AUROC</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cancer</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Target</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.9170520231213873</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Breast Cancer</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TCGA annotation</t>
-        </is>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.9153179190751446</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.9290780141843973</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>TCGA annotation</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.9442771084337349</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.6826589595375723</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.742686170212766</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Melanoma</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>CNV</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.7040662650602409</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Breast Cancer</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0.8164739884393064</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Lung Cancer</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SURV</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8328900709219857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Average Hold-Out Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>10-fold CV Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Average Precision</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>UPREG/GAIN Precision</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>DOWNREG/LOSS Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Average Recall</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>UPREG/GAIN Recall</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>DOWNREG/LOSS Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>P-value</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Z-score</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Breast Cancer Cancer</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>83.17</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1e-50</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>66.20999999999999</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0.6654666478044902</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Lung Cancer Cancer</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>81.62</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>93.51000000000001</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1e-50</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>102.73</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0.8456136146306075</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Melanoma Cancer</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>77.16</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>90.56999999999999</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1e-50</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>109.73</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.8239695358926079</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Average Hold-Out Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>10-fold CV Accuracy (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Average Precision</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>UPREG/GAIN Precision</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>DOWNREG/LOSS Precision</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Average Recall</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>UPREG/GAIN Recall</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>DOWNREG/LOSS Recall</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>P-value</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Z-score</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Breast Cancer Cancer</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>93.31</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>1e-50</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>98.14</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0.8722963449363004</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Lung Cancer Cancer</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.81</v>
+      </c>
+      <c r="C3" t="n">
+        <v>94.20999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1e-50</v>
+      </c>
+      <c r="K3" t="n">
+        <v>117.35</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8838905476096195</v>
       </c>
     </row>
   </sheetData>
